--- a/MatchOdds/mail.xlsx
+++ b/MatchOdds/mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\rpa-project\MatchOdds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC969180-712C-4D22-9A42-C1EEB9DCE2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D1DA1-F491-415F-933F-AAB5E9D91375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{B59F2867-ED4D-4493-84D2-E03656941E51}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Match</t>
   </si>
@@ -49,19 +49,16 @@
     <t>HighestOddTeam2Website</t>
   </si>
   <si>
-    <t>CF Monterrey vs Queretaro FC</t>
-  </si>
-  <si>
     <t>Betano</t>
   </si>
   <si>
-    <t>Cruz Azul vs Club Tijuana</t>
-  </si>
-  <si>
-    <t>Casa Pariurilor</t>
-  </si>
-  <si>
     <t>AS Roma vs Juventus FC</t>
+  </si>
+  <si>
+    <t>Inter Milano vs SS Lazio</t>
+  </si>
+  <si>
+    <t>Villarreal CF vs Atletico Madrid</t>
   </si>
 </sst>
 </file>
@@ -447,19 +444,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>1.5</v>
+        <v>3.54</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>2.31</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,33 +464,33 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.75</v>
+        <v>1.39</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>5.4</v>
+        <v>10.15</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>3.58</v>
+        <v>2.91</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2.25</v>
+        <v>2.73</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/MatchOdds/mail.xlsx
+++ b/MatchOdds/mail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\rpa-project\MatchOdds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D1DA1-F491-415F-933F-AAB5E9D91375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66B106-94E8-4632-80DE-2B12887A54AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{B59F2867-ED4D-4493-84D2-E03656941E51}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{B59F2867-ED4D-4493-84D2-E03656941E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,13 +52,13 @@
     <t>Betano</t>
   </si>
   <si>
-    <t>AS Roma vs Juventus FC</t>
-  </si>
-  <si>
-    <t>Inter Milano vs SS Lazio</t>
-  </si>
-  <si>
-    <t>Villarreal CF vs Atletico Madrid</t>
+    <t>Manchester United vs Aston Villa</t>
+  </si>
+  <si>
+    <t>Senegal vs Zimbabwe</t>
+  </si>
+  <si>
+    <t>Torino FC vs AC Fiorentina</t>
   </si>
 </sst>
 </file>
@@ -447,13 +447,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>3.54</v>
+        <v>1.75</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>2.31</v>
+        <v>5.17</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -464,13 +464,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>10.15</v>
+        <v>11.25</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2.91</v>
+        <v>2.95</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>2.73</v>
+        <v>2.37</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
